--- a/JSProjectTables.xlsx
+++ b/JSProjectTables.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>(PK) PlayerID</t>
   </si>
@@ -39,7 +39,7 @@
     <t>PK(PlayerID</t>
   </si>
   <si>
-    <t>SkillName)</t>
+    <t>(FK) SkillName)</t>
   </si>
   <si>
     <t>SkillLvl</t>
@@ -48,10 +48,10 @@
     <t>Smithing</t>
   </si>
   <si>
-    <t>(PK) FavoriteID</t>
+    <t>((PK) FavoriteID</t>
   </si>
   <si>
-    <t>(FK) ItemID</t>
+    <t>(FK) ItemID)</t>
   </si>
   <si>
     <t>(PK) SkillName</t>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>((PK) IngredientID</t>
-  </si>
-  <si>
-    <t>(FK) ItemID)</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -1492,7 +1489,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4734,10 +4731,10 @@
         <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5826,13 +5823,13 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">

--- a/JSProjectTables.xlsx
+++ b/JSProjectTables.xlsx
@@ -15,7 +15,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="yiKs2HQikxk6Tntp6rVY/vQz4EwXn/KYvJw1Btk31qs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="Yjy58REegOf6KxbwNK4Z+kgfNEu4AM3j/i3k4cC7d+U="/>
     </ext>
   </extLst>
 </workbook>
@@ -5844,41 +5844,71 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1">
-        <v>1319.0</v>
-      </c>
-      <c r="B3" s="1" t="b">
+      <c r="A3" s="2">
+        <v>440.0</v>
+      </c>
+      <c r="B3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>39400.0</v>
+      <c r="C3" s="2">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1">
-        <v>2353.0</v>
-      </c>
-      <c r="B4" s="1" t="b">
+      <c r="A4" s="2">
+        <v>451.0</v>
+      </c>
+      <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>60.0</v>
+      <c r="C4" s="2">
+        <v>1920.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
+        <v>453.0</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="1">
+        <v>1319.0</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39400.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="1">
+        <v>2353.0</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="1">
         <v>2363.0</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8" s="1">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -6871,6 +6901,9 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
